--- a/StructureDefinition-ext-R5-Citation.xlsx
+++ b/StructureDefinition-ext-R5-Citation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T19:17:19.5427077+00:00</t>
+    <t>2026-02-10T04:05:33.0136333+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1738,6 +1738,7 @@
   </si>
   <si>
     <t>Element `Citation.citedArtifact.version.baseCitation` is part of an existing definition because parent element `Citation.citedArtifact.version` requires a cross-version extension.
+Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `Citation.citedArtifact.version.baseCitation` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
 Element `Citation.citedArtifact.version.baseCitation` is not mapped to FHIR R4, since FHIR R5 `Citation` is not mapped.</t>
   </si>
   <si>
@@ -2213,6 +2214,7 @@
   </si>
   <si>
     <t>Element `Citation.citedArtifact.part.baseCitation` is part of an existing definition because parent element `Citation.citedArtifact.part` requires a cross-version extension.
+Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `Citation.citedArtifact.part.baseCitation` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
 Element `Citation.citedArtifact.part.baseCitation` is not mapped to FHIR R4, since FHIR R5 `Citation` is not mapped.</t>
   </si>
   <si>
@@ -2447,6 +2449,7 @@
   </si>
   <si>
     <t>Element `Citation.citedArtifact.relatesTo.resource` is part of an existing definition because parent element `Citation.citedArtifact.relatesTo` requires a cross-version extension.
+Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `Citation.citedArtifact.relatesTo.resource` with an unmapped Canonical type: `http://hl7.org/fhir/StructureDefinition/alternate-canonical`.
 Element `Citation.citedArtifact.relatesTo.resource` is not mapped to FHIR R4, since FHIR R5 `Citation` is not mapped.</t>
   </si>
   <si>
@@ -2482,6 +2485,7 @@
   </si>
   <si>
     <t>Element `Citation.citedArtifact.relatesTo.resourceReference` is part of an existing definition because parent element `Citation.citedArtifact.relatesTo` requires a cross-version extension.
+Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `Citation.citedArtifact.relatesTo.resourceReference` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
 Element `Citation.citedArtifact.relatesTo.resourceReference` is not mapped to FHIR R4, since FHIR R5 `Citation` is not mapped.</t>
   </si>
   <si>
@@ -2660,6 +2664,7 @@
   </si>
   <si>
     <t>Element `Citation.citedArtifact.publicationForm.publishedIn.publisher` is part of an existing definition because parent element `Citation.citedArtifact.publicationForm.publishedIn` requires a cross-version extension.
+Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `Citation.citedArtifact.publicationForm.publishedIn.publisher` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
 Element `Citation.citedArtifact.publicationForm.publishedIn.publisher` is not mapped to FHIR R4, since FHIR R5 `Citation` is not mapped.</t>
   </si>
   <si>
@@ -3277,6 +3282,7 @@
   </si>
   <si>
     <t>Element `Citation.citedArtifact.classification.artifactAssessment` is part of an existing definition because parent element `Citation.citedArtifact.classification` requires a cross-version extension.
+Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `Citation.citedArtifact.classification.artifactAssessment` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
 Element `Citation.citedArtifact.classification.artifactAssessment` is not mapped to FHIR R4, since FHIR R5 `Citation` is not mapped.</t>
   </si>
   <si>
@@ -3396,6 +3402,7 @@
   </si>
   <si>
     <t>Element `Citation.citedArtifact.contributorship.entry.contributor` is part of an existing definition because parent element `Citation.citedArtifact.contributorship.entry` requires a cross-version extension.
+Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `Citation.citedArtifact.contributorship.entry.contributor` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
 Element `Citation.citedArtifact.contributorship.entry.contributor` is not mapped to FHIR R4, since FHIR R5 `Citation` is not mapped.</t>
   </si>
   <si>
@@ -3462,6 +3469,7 @@
   </si>
   <si>
     <t>Element `Citation.citedArtifact.contributorship.entry.affiliation` is part of an existing definition because parent element `Citation.citedArtifact.contributorship.entry` requires a cross-version extension.
+Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `Citation.citedArtifact.contributorship.entry.affiliation` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
 Element `Citation.citedArtifact.contributorship.entry.affiliation` is not mapped to FHIR R4, since FHIR R5 `Citation` is not mapped.</t>
   </si>
   <si>

--- a/StructureDefinition-ext-R5-Citation.xlsx
+++ b/StructureDefinition-ext-R5-Citation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-10T04:05:33.0136333+00:00</t>
+    <t>2026-02-17T20:42:20.5370068+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
